--- a/assets/sp_cetesb_infoaguas/excel/TJCO03750.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/TJCO03750.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,13 +540,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>118.00000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,18 +566,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -592,22 +592,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00010000</t>
+          <t>198.00000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -622,13 +618,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>13.00000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,13 +644,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -674,13 +674,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.62000000</t>
+          <t>7.30000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -700,13 +700,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.31000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -726,13 +730,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>13.00000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -752,17 +756,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -782,13 +782,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -808,13 +808,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.30000000</t>
+          <t>12.00000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -834,13 +834,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13.00000000</t>
+          <t>58.00000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -860,13 +860,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>118.00000000</t>
+          <t>179.00000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -886,13 +886,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>179.00000000</t>
+          <t>6.70000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -912,18 +912,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24.40000000</t>
+          <t>3.30000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -938,18 +938,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>26.90000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -964,18 +968,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>60.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -990,13 +994,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.70000000</t>
+          <t>0.31000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1016,13 +1020,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.17000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1042,13 +1046,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>0.17000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1068,13 +1072,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.62000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1094,13 +1098,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1120,13 +1124,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1146,13 +1150,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.60000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1172,17 +1180,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1202,18 +1206,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1228,13 +1232,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11.40000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1254,22 +1258,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>10000.00000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.00010000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1344,18 +1344,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>60.00000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1370,18 +1370,18 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>198.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Zinco Total</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1426,17 +1426,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>11.40000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1456,18 +1452,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1478,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1508,18 +1504,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12.00000000</t>
+          <t>24.40000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1534,13 +1530,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>58.00000000</t>
+          <t>6.60000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1560,18 +1556,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10000.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1586,18 +1586,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.30000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1612,22 +1616,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1642,16 +1642,3400 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>26.90000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5.20000000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>5.00000000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13.40000000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>940000.00000000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.00000000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>247.00000000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>11.50000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.40000000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.22000000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>7.19000000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7.00000000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.12000000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.32000000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>6.40000000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>60.00000000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>392.00000000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.00010000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>16.20000000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>31.00000000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>223.00000000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>15.00000000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14.10000000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3.60000000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44348.35763888889</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>49.00000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>166.00000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.00010000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>5.90000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>28.00000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>19.70000000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>7.22000000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>17.40000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.23000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>13.00000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>4.60000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.40000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>192.00000000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.22000000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>294.00000000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>33.00000000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>12.00000000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>18.90000000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>49.00000000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2100.00000000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>4.10000000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.70000000</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>5.00000000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>6.50000000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.12000000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.60000000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>9.20000000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44439.34722222222</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.80000000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>202.00000000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.70000000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>565.00000000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>20.90000000</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>23.40000000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>450.00000000</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.20000000</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>25.00000000</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>17.50000000</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>14.00000000</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>312.00000000</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>29.00000000</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>9.00000000</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.00010000</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2.37000000</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0.60000000</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0.27000000</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>5.38000000</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>16.00000000</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.94000000</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>42.20000000</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.25000000</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>27000.00000000</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>84.00000000</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>19.00000000</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>4.90000000</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>10.00000000</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0.60000000</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>24.00000000</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Marrom</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>TJCO03750</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>44530.35277777778</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>6.80000000</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
